--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H2">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I2">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J2">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>0.3991492177248888</v>
+        <v>1.189959716387555</v>
       </c>
       <c r="R2">
-        <v>3.592342959524</v>
+        <v>10.709637447488</v>
       </c>
       <c r="S2">
-        <v>0.0009745196821405287</v>
+        <v>0.002384571739194257</v>
       </c>
       <c r="T2">
-        <v>0.0009745196821405286</v>
+        <v>0.002384571739194257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H3">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I3">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J3">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>42.43690403464267</v>
+        <v>92.08804856570134</v>
       </c>
       <c r="R3">
-        <v>381.932136311784</v>
+        <v>828.7924370913121</v>
       </c>
       <c r="S3">
-        <v>0.1036093681119831</v>
+        <v>0.1845361276547631</v>
       </c>
       <c r="T3">
-        <v>0.1036093681119831</v>
+        <v>0.1845361276547631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H4">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I4">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J4">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>6.875593312588</v>
+        <v>13.33945267782889</v>
       </c>
       <c r="R4">
-        <v>61.880339813292</v>
+        <v>120.05507410046</v>
       </c>
       <c r="S4">
-        <v>0.01678670710593504</v>
+        <v>0.0267310577272602</v>
       </c>
       <c r="T4">
-        <v>0.01678670710593503</v>
+        <v>0.0267310577272602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.588675333333333</v>
+        <v>7.787422666666667</v>
       </c>
       <c r="H5">
-        <v>10.766026</v>
+        <v>23.362268</v>
       </c>
       <c r="I5">
-        <v>0.1217029912931363</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="J5">
-        <v>0.1217029912931362</v>
+        <v>0.2161047632645357</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>0.1361447723457778</v>
+        <v>1.224110160588445</v>
       </c>
       <c r="R5">
-        <v>1.225302951112</v>
+        <v>11.016991445296</v>
       </c>
       <c r="S5">
-        <v>0.0003323963930776082</v>
+        <v>0.002453006143318109</v>
       </c>
       <c r="T5">
-        <v>0.0003323963930776081</v>
+        <v>0.002453006143318109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H6">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I6">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J6">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>2.020832552666889</v>
+        <v>2.776308539063111</v>
       </c>
       <c r="R6">
-        <v>18.187492974002</v>
+        <v>24.986776851568</v>
       </c>
       <c r="S6">
-        <v>0.004933846815757825</v>
+        <v>0.005563471427109584</v>
       </c>
       <c r="T6">
-        <v>0.004933846815757825</v>
+        <v>0.005563471427109586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H7">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I7">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J7">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
         <v>214.8516727564147</v>
@@ -883,10 +883,10 @@
         <v>1933.665054807732</v>
       </c>
       <c r="S7">
-        <v>0.5245586726572369</v>
+        <v>0.4305433368188909</v>
       </c>
       <c r="T7">
-        <v>0.5245586726572368</v>
+        <v>0.430543336818891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H8">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I8">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J8">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>34.810096495174</v>
+        <v>31.12242865524278</v>
       </c>
       <c r="R8">
-        <v>313.290868456566</v>
+        <v>280.101857897185</v>
       </c>
       <c r="S8">
-        <v>0.08498857736742303</v>
+        <v>0.06236653460142089</v>
       </c>
       <c r="T8">
-        <v>0.08498857736742303</v>
+        <v>0.06236653460142089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.16892433333333</v>
+        <v>18.16892433333334</v>
       </c>
       <c r="H9">
-        <v>54.506773</v>
+        <v>54.50677300000001</v>
       </c>
       <c r="I9">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605992</v>
       </c>
       <c r="J9">
-        <v>0.6161639698655711</v>
+        <v>0.5041964793605993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>0.6892805387417777</v>
+        <v>2.855985328572889</v>
       </c>
       <c r="R9">
-        <v>6.203524848676</v>
+        <v>25.703867957156</v>
       </c>
       <c r="S9">
-        <v>0.001682873025153382</v>
+        <v>0.005723136513177816</v>
       </c>
       <c r="T9">
-        <v>0.001682873025153382</v>
+        <v>0.005723136513177816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H10">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I10">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J10">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>0.5755699282031111</v>
+        <v>0.946684915816889</v>
       </c>
       <c r="R10">
-        <v>5.180129353828</v>
+        <v>8.520164242352001</v>
       </c>
       <c r="S10">
-        <v>0.001405249462041393</v>
+        <v>0.001897071022733031</v>
       </c>
       <c r="T10">
-        <v>0.001405249462041392</v>
+        <v>0.001897071022733031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H11">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I11">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J11">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>61.19367074700535</v>
+        <v>73.26161155170534</v>
       </c>
       <c r="R11">
-        <v>550.743036723048</v>
+        <v>659.3545039653482</v>
       </c>
       <c r="S11">
-        <v>0.1494038668177636</v>
+        <v>0.1468096491571713</v>
       </c>
       <c r="T11">
-        <v>0.1494038668177635</v>
+        <v>0.1468096491571713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H12">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I12">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J12">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>9.914549681036002</v>
+        <v>10.61234129310722</v>
       </c>
       <c r="R12">
-        <v>89.23094712932401</v>
+        <v>95.511071637965</v>
       </c>
       <c r="S12">
-        <v>0.02420629522663654</v>
+        <v>0.02126617295167822</v>
       </c>
       <c r="T12">
-        <v>0.02420629522663653</v>
+        <v>0.02126617295167823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.174840666666667</v>
+        <v>6.195365666666667</v>
       </c>
       <c r="H13">
-        <v>15.524522</v>
+        <v>18.586097</v>
       </c>
       <c r="I13">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="J13">
-        <v>0.1754947244039818</v>
+        <v>0.1719244078612872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N13">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q13">
-        <v>0.1963196553182222</v>
+        <v>0.9738536593871113</v>
       </c>
       <c r="R13">
-        <v>1.766876897864</v>
+        <v>8.764682934484</v>
       </c>
       <c r="S13">
-        <v>0.0004793128975402788</v>
+        <v>0.001951514729704594</v>
       </c>
       <c r="T13">
-        <v>0.0004793128975402786</v>
+        <v>0.001951514729704594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H14">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I14">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J14">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N14">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q14">
-        <v>0.2841476209024444</v>
+        <v>0.5934489015591111</v>
       </c>
       <c r="R14">
-        <v>2.557328588122</v>
+        <v>5.341040114032</v>
       </c>
       <c r="S14">
-        <v>0.0006937441861496878</v>
+        <v>0.001189217970848387</v>
       </c>
       <c r="T14">
-        <v>0.0006937441861496878</v>
+        <v>0.001189217970848387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H15">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I15">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J15">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.475684</v>
       </c>
       <c r="O15">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P15">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q15">
-        <v>30.21011888396133</v>
+        <v>45.92554732351868</v>
       </c>
       <c r="R15">
-        <v>271.891069955652</v>
+        <v>413.3299259116681</v>
       </c>
       <c r="S15">
-        <v>0.07375776813501653</v>
+        <v>0.09203064670722358</v>
       </c>
       <c r="T15">
-        <v>0.07375776813501651</v>
+        <v>0.09203064670722357</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H16">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I16">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J16">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N16">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q16">
-        <v>4.894619343614</v>
+        <v>6.652564309562778</v>
       </c>
       <c r="R16">
-        <v>44.051574092526</v>
+        <v>59.873078786065</v>
       </c>
       <c r="S16">
-        <v>0.01195017470941212</v>
+        <v>0.01333113770768119</v>
       </c>
       <c r="T16">
-        <v>0.01195017470941212</v>
+        <v>0.01333113770768119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.554717666666666</v>
+        <v>3.883692333333334</v>
       </c>
       <c r="H17">
-        <v>7.664153</v>
+        <v>11.651077</v>
       </c>
       <c r="I17">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="J17">
-        <v>0.08663831443731086</v>
+        <v>0.1077743495135779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N17">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q17">
-        <v>0.09691917569288887</v>
+        <v>0.6104801870048889</v>
       </c>
       <c r="R17">
-        <v>0.8722725812359998</v>
+        <v>5.494321683044</v>
       </c>
       <c r="S17">
-        <v>0.0002366274067325241</v>
+        <v>0.001223347127824761</v>
       </c>
       <c r="T17">
-        <v>0.0002366274067325241</v>
+        <v>0.001223347127824761</v>
       </c>
     </row>
   </sheetData>
